--- a/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P11_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>344731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>318092</v>
+        <v>316853</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>374805</v>
+        <v>372968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3341315346072462</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3083112664396168</v>
+        <v>0.3071103407495677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3632805351252535</v>
+        <v>0.3615004603674911</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>602</v>
@@ -765,19 +765,19 @@
         <v>615420</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>579074</v>
+        <v>579715</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>653173</v>
+        <v>651976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4679594520854934</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4403222531506226</v>
+        <v>0.4408098688970448</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4966666350672728</v>
+        <v>0.4957562613787482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>956</v>
@@ -786,19 +786,19 @@
         <v>960150</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>914165</v>
+        <v>913478</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1006108</v>
+        <v>1007818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4091256221320404</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.389530967020098</v>
+        <v>0.3892381080188853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4287084228895748</v>
+        <v>0.4294372481260194</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>686992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>656918</v>
+        <v>658755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>713631</v>
+        <v>714870</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6658684653927539</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.636719464874747</v>
+        <v>0.6384995396325089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6916887335603834</v>
+        <v>0.6928896592504326</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>689</v>
@@ -836,19 +836,19 @@
         <v>699693</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>661940</v>
+        <v>663137</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>736039</v>
+        <v>735398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5320405479145066</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5033333649327273</v>
+        <v>0.5042437386212517</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5596777468493775</v>
+        <v>0.559190131102955</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1373</v>
@@ -857,19 +857,19 @@
         <v>1386685</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1340727</v>
+        <v>1339017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1432670</v>
+        <v>1433357</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5908743778679596</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5712915771104251</v>
+        <v>0.5705627518739804</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.610469032979902</v>
+        <v>0.6107618919811145</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>194617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>172236</v>
+        <v>167116</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>220587</v>
+        <v>222230</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1149261400555104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1017092794038589</v>
+        <v>0.09868583892325958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1302618423514575</v>
+        <v>0.1312318860831736</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>280</v>
@@ -982,19 +982,19 @@
         <v>290783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>259138</v>
+        <v>263069</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>320877</v>
+        <v>323790</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1831503358621877</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1632185120331237</v>
+        <v>0.165694855579704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.202105152262721</v>
+        <v>0.2039398147681191</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>474</v>
@@ -1003,19 +1003,19 @@
         <v>485400</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>443609</v>
+        <v>447237</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>528726</v>
+        <v>528887</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1479389078066571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1352019151581544</v>
+        <v>0.1363076608008162</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1611436353936183</v>
+        <v>0.1611928150136453</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1498796</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1472826</v>
+        <v>1471183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1521177</v>
+        <v>1526297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8850738599444896</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8697381576485426</v>
+        <v>0.8687681139168265</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8982907205961411</v>
+        <v>0.9013141610767406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1274</v>
@@ -1053,19 +1053,19 @@
         <v>1296890</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1266796</v>
+        <v>1263883</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1328535</v>
+        <v>1324604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8168496641378122</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.797894847737279</v>
+        <v>0.7960601852318812</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8367814879668762</v>
+        <v>0.8343051444202964</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2729</v>
@@ -1074,19 +1074,19 @@
         <v>2795686</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2752360</v>
+        <v>2752199</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2837477</v>
+        <v>2833849</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8520610921933429</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8388563646063817</v>
+        <v>0.8388071849863549</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8647980848418456</v>
+        <v>0.8636923391991839</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>56335</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42101</v>
+        <v>42721</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>72875</v>
+        <v>72032</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1021659348016114</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07635161270343589</v>
+        <v>0.07747646339272272</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1321615552774149</v>
+        <v>0.1306333196977362</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -1199,19 +1199,19 @@
         <v>80504</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63864</v>
+        <v>64667</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97719</v>
+        <v>98113</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1689792511827207</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1340520939538788</v>
+        <v>0.135737803109822</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2051149000717447</v>
+        <v>0.2059408498214299</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1220,19 +1220,19 @@
         <v>136839</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117387</v>
+        <v>115926</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>161505</v>
+        <v>159695</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1331350292467273</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1142094127832558</v>
+        <v>0.1127884437164756</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1571337702738219</v>
+        <v>0.1553728696149901</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>495073</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>478533</v>
+        <v>479376</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>509307</v>
+        <v>508687</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8978340651983886</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8678384447225851</v>
+        <v>0.8693666803022638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9236483872965642</v>
+        <v>0.9225235366072774</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>375</v>
@@ -1270,19 +1270,19 @@
         <v>395908</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>378693</v>
+        <v>378299</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>412548</v>
+        <v>411745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8310207488172793</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7948850999282553</v>
+        <v>0.7940591501785701</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8659479060461214</v>
+        <v>0.864262196890178</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>850</v>
@@ -1291,19 +1291,19 @@
         <v>890981</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>866315</v>
+        <v>868125</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>910433</v>
+        <v>911894</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8668649707532726</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.842866229726178</v>
+        <v>0.8446271303850099</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8857905872167439</v>
+        <v>0.8872115562835244</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>595684</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>552447</v>
+        <v>549507</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>640703</v>
+        <v>638471</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1818024517021065</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1686066687995799</v>
+        <v>0.1677094434853398</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1955425101857123</v>
+        <v>0.1948612947337807</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>959</v>
@@ -1416,19 +1416,19 @@
         <v>986706</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>933981</v>
+        <v>937705</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1037491</v>
+        <v>1039754</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2919941708547434</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2763915148759407</v>
+        <v>0.2774934538337981</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3070229447498261</v>
+        <v>0.3076926647884504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1559</v>
@@ -1437,19 +1437,19 @@
         <v>1582390</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1510132</v>
+        <v>1511411</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1650065</v>
+        <v>1653031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2377480754111515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2268916521119225</v>
+        <v>0.2270837719820155</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2479160208090878</v>
+        <v>0.2483616620316756</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>2680859</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2635840</v>
+        <v>2638072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2724096</v>
+        <v>2727036</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8181975482978935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8044574898142877</v>
+        <v>0.8051387052662196</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8313933312004204</v>
+        <v>0.8322905565146602</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2338</v>
@@ -1487,19 +1487,19 @@
         <v>2392491</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2341706</v>
+        <v>2339443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2445216</v>
+        <v>2441492</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7080058291452566</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6929770552501739</v>
+        <v>0.6923073352115495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7236084851240593</v>
+        <v>0.7225065461662019</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4952</v>
@@ -1508,19 +1508,19 @@
         <v>5073351</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5005676</v>
+        <v>5002710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5145609</v>
+        <v>5144330</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7622519245888485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7520839791909122</v>
+        <v>0.7516383379683245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7731083478880776</v>
+        <v>0.7729162280179847</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>336223</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>302873</v>
+        <v>307597</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365793</v>
+        <v>366457</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3464256467409932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.312063625674638</v>
+        <v>0.3169313445361674</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3768927557024356</v>
+        <v>0.3775778688148086</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>653</v>
@@ -1872,19 +1872,19 @@
         <v>695779</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>658794</v>
+        <v>659467</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>732680</v>
+        <v>731334</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5204580685528978</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4927927145628201</v>
+        <v>0.493296171455668</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5480611992361027</v>
+        <v>0.547054310576028</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>960</v>
@@ -1893,19 +1893,19 @@
         <v>1032001</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>983237</v>
+        <v>983982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1084465</v>
+        <v>1085772</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4472560355422014</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4261222573063243</v>
+        <v>0.4264454988715276</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4699932748536701</v>
+        <v>0.4705599447040451</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>634325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>604755</v>
+        <v>604091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>667675</v>
+        <v>662951</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6535743532590067</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6231072442975644</v>
+        <v>0.6224221311851914</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6879363743253621</v>
+        <v>0.6830686554638324</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>593</v>
@@ -1943,19 +1943,19 @@
         <v>641079</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>604178</v>
+        <v>605524</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>678064</v>
+        <v>677391</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4795419314471023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4519388007638972</v>
+        <v>0.4529456894239719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5072072854371799</v>
+        <v>0.506703828544332</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1190</v>
@@ -1964,19 +1964,19 @@
         <v>1275404</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1222940</v>
+        <v>1221633</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1324168</v>
+        <v>1323423</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5527439644577986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.53000672514633</v>
+        <v>0.5294400552959548</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5738777426936756</v>
+        <v>0.5735545011284724</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>252875</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>221340</v>
+        <v>223622</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>284269</v>
+        <v>284049</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1294719454336685</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1133261958999521</v>
+        <v>0.114494272639672</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1455455876747661</v>
+        <v>0.1454330508584091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>331</v>
@@ -2089,19 +2089,19 @@
         <v>363940</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>328872</v>
+        <v>329861</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>398919</v>
+        <v>402929</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2073878743087908</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1874044097123284</v>
+        <v>0.1879683116121423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2273201211228782</v>
+        <v>0.2296054912815025</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>566</v>
@@ -2110,19 +2110,19 @@
         <v>616815</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>569155</v>
+        <v>567554</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>661075</v>
+        <v>666623</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1663470150551071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1534938751453627</v>
+        <v>0.1530618597744368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1782833163350812</v>
+        <v>0.1797796159505249</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1700250</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1668856</v>
+        <v>1669076</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1731785</v>
+        <v>1729503</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8705280545663315</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8544544123252339</v>
+        <v>0.854566949141591</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8866738041000477</v>
+        <v>0.8855057273603282</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1301</v>
@@ -2160,19 +2160,19 @@
         <v>1390936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1355957</v>
+        <v>1351947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1426004</v>
+        <v>1425015</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7926121256912092</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7726798788771218</v>
+        <v>0.7703945087184978</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8125955902876716</v>
+        <v>0.8120316883878586</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2912</v>
@@ -2181,19 +2181,19 @@
         <v>3091186</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3046926</v>
+        <v>3041378</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3138846</v>
+        <v>3140447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8336529849448929</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8217166836649188</v>
+        <v>0.8202203840494751</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8465061248546374</v>
+        <v>0.8469381402255632</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>51238</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38196</v>
+        <v>37126</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66941</v>
+        <v>68060</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1069644951344849</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07973895703759991</v>
+        <v>0.07750393555519845</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1397458239631732</v>
+        <v>0.1420815808043082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -2306,19 +2306,19 @@
         <v>50838</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37804</v>
+        <v>37720</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66405</v>
+        <v>67193</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1108476004617298</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08242807884001739</v>
+        <v>0.08224398704165294</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1447906243524833</v>
+        <v>0.1465075522590292</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>87</v>
@@ -2327,19 +2327,19 @@
         <v>102076</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80023</v>
+        <v>79624</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126933</v>
+        <v>127042</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1088638339652915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08534433231711208</v>
+        <v>0.08491887641627012</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1353741315476166</v>
+        <v>0.1354897156081447</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>427780</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>412077</v>
+        <v>410958</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>440822</v>
+        <v>441892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8930355048655151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8602541760368267</v>
+        <v>0.8579184191956917</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9202610429624004</v>
+        <v>0.9224960644448011</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>367</v>
@@ -2377,19 +2377,19 @@
         <v>407793</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>392226</v>
+        <v>391438</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>420827</v>
+        <v>420911</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8891523995382702</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8552093756475166</v>
+        <v>0.8534924477409709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9175719211599825</v>
+        <v>0.9177560129583469</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>761</v>
@@ -2398,19 +2398,19 @@
         <v>835573</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>810716</v>
+        <v>810607</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>857626</v>
+        <v>858025</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8911361660347085</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.864625868452383</v>
+        <v>0.8645102843918552</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9146556676828876</v>
+        <v>0.9150811235837297</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>640335</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>598253</v>
+        <v>594965</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>690792</v>
+        <v>691324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.188185028779245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1758177088233869</v>
+        <v>0.1748513224917388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2030135455591122</v>
+        <v>0.2031698881606262</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1029</v>
@@ -2523,19 +2523,19 @@
         <v>1110557</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1054406</v>
+        <v>1055373</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1162071</v>
+        <v>1169448</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3128006832436097</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2969851056249759</v>
+        <v>0.297257726623825</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3273102270876426</v>
+        <v>0.3293879758530108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1613</v>
@@ -2544,19 +2544,19 @@
         <v>1750892</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1670888</v>
+        <v>1677957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1826115</v>
+        <v>1828907</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2518161980738552</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2403098799748462</v>
+        <v>0.2413266270577316</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2626349604423317</v>
+        <v>0.2630364021888892</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>2762355</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2711898</v>
+        <v>2711366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2804437</v>
+        <v>2807725</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.811814971220755</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7969864544408877</v>
+        <v>0.7968301118393738</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.824182291176613</v>
+        <v>0.825148677508261</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2261</v>
@@ -2594,19 +2594,19 @@
         <v>2439808</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2388294</v>
+        <v>2380917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2495959</v>
+        <v>2494992</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6871993167563903</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6726897729123575</v>
+        <v>0.6706120241469895</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7030148943750243</v>
+        <v>0.702742273376175</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4863</v>
@@ -2615,19 +2615,19 @@
         <v>5202163</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5126940</v>
+        <v>5124148</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5282167</v>
+        <v>5275098</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7481838019261449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7373650395576683</v>
+        <v>0.7369635978111108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7596901200251538</v>
+        <v>0.7586733729422684</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>255182</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>229119</v>
+        <v>230396</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>277139</v>
+        <v>280627</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3400560283885192</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3053242959953509</v>
+        <v>0.3070262166398625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3693164519533696</v>
+        <v>0.3739646352859876</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>454</v>
@@ -2979,19 +2979,19 @@
         <v>522805</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>490483</v>
+        <v>489941</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>554048</v>
+        <v>555739</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5319397562497521</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4990531367822726</v>
+        <v>0.4985010301416575</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5637282252601299</v>
+        <v>0.5654492901938156</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>720</v>
@@ -3000,19 +3000,19 @@
         <v>777987</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>735741</v>
+        <v>735636</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>818711</v>
+        <v>819897</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4488631266767443</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4244888852560009</v>
+        <v>0.4244283969296892</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4723590495769859</v>
+        <v>0.4730429853022671</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>495229</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>473272</v>
+        <v>469784</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521292</v>
+        <v>520015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6599439716114808</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6306835480466306</v>
+        <v>0.6260353647140124</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6946757040046494</v>
+        <v>0.6929737833601378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>427</v>
@@ -3050,19 +3050,19 @@
         <v>460023</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>428780</v>
+        <v>427089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>492345</v>
+        <v>492887</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4680602437502479</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4362717747398701</v>
+        <v>0.4345507098061845</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5009468632177272</v>
+        <v>0.5014989698583425</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>919</v>
@@ -3071,19 +3071,19 @@
         <v>955252</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>914528</v>
+        <v>913342</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>997498</v>
+        <v>997603</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5511368733232558</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5276409504230138</v>
+        <v>0.5269570146977328</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5755111147439991</v>
+        <v>0.5755716030703107</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>317410</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>287414</v>
+        <v>284938</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>357628</v>
+        <v>351227</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1539887808456748</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1394366182475243</v>
+        <v>0.1382355675153079</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1735003575634641</v>
+        <v>0.1703950784270767</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>369</v>
@@ -3196,19 +3196,19 @@
         <v>405034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>368005</v>
+        <v>371609</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>442984</v>
+        <v>444517</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2046217237174333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.185914707699191</v>
+        <v>0.1877354838967245</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2237938960570768</v>
+        <v>0.2245682032841002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>663</v>
@@ -3217,19 +3217,19 @@
         <v>722444</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>670421</v>
+        <v>671388</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>780199</v>
+        <v>777100</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1787925956859232</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1659178719505972</v>
+        <v>0.166157162756589</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1930860239994428</v>
+        <v>0.1923189960962699</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1743842</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1703624</v>
+        <v>1710025</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1773838</v>
+        <v>1776314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8460112191543252</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8264996424365358</v>
+        <v>0.829604921572923</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8605633817524757</v>
+        <v>0.861764432484692</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1530</v>
@@ -3267,19 +3267,19 @@
         <v>1574395</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1536445</v>
+        <v>1534912</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1611424</v>
+        <v>1607820</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7953782762825667</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7762061039429232</v>
+        <v>0.7754317967158998</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8140852923008091</v>
+        <v>0.8122645161032754</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3173</v>
@@ -3288,19 +3288,19 @@
         <v>3318237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3260482</v>
+        <v>3263581</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3370260</v>
+        <v>3369293</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8212074043140768</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.806913976000557</v>
+        <v>0.8076810039037301</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8340821280494027</v>
+        <v>0.8338428372434109</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>52734</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39159</v>
+        <v>38554</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66868</v>
+        <v>68485</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09743379601983901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07235158840556562</v>
+        <v>0.07123274518348216</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1235480846629721</v>
+        <v>0.1265343892365333</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -3413,19 +3413,19 @@
         <v>86934</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69727</v>
+        <v>70136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>105956</v>
+        <v>107332</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1588445206212972</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1274033596177921</v>
+        <v>0.1281511998222335</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.193600655991633</v>
+        <v>0.1961155566866332</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>126</v>
@@ -3434,19 +3434,19 @@
         <v>139669</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117102</v>
+        <v>116299</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>165465</v>
+        <v>162528</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1283100031899792</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1075782672209503</v>
+        <v>0.1068412137011389</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1520089790572575</v>
+        <v>0.1493106362552618</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>488500</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>474366</v>
+        <v>472749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>502075</v>
+        <v>502680</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.902566203980161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8764519153370279</v>
+        <v>0.8734656107634667</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9276484115944345</v>
+        <v>0.9287672548165179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>444</v>
@@ -3484,19 +3484,19 @@
         <v>460356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441334</v>
+        <v>439958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>477563</v>
+        <v>477154</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8411554793787028</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.806399344008367</v>
+        <v>0.8038844433133667</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.872596640382208</v>
+        <v>0.8718488001777664</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>895</v>
@@ -3505,19 +3505,19 @@
         <v>948855</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>923059</v>
+        <v>925996</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>971422</v>
+        <v>972225</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8716899968100208</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8479910209427425</v>
+        <v>0.8506893637447382</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8924217327790497</v>
+        <v>0.8931587862988611</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>625326</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>579224</v>
+        <v>582472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>670058</v>
+        <v>671611</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1865031760787724</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1727532240608379</v>
+        <v>0.1737220316135633</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.199844453358329</v>
+        <v>0.2003076984995148</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>903</v>
@@ -3630,19 +3630,19 @@
         <v>1014773</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>962429</v>
+        <v>956534</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1064245</v>
+        <v>1068258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2891465566829978</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2742315687374067</v>
+        <v>0.2725518862293161</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3032427332683099</v>
+        <v>0.3043863545762346</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1509</v>
@@ -3651,19 +3651,19 @@
         <v>1640099</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1566002</v>
+        <v>1574617</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1714511</v>
+        <v>1717490</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2389963948839081</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2281988675526811</v>
+        <v>0.2294542682183204</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2498396731573224</v>
+        <v>0.2502737642054571</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>2727571</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2682839</v>
+        <v>2681286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2773673</v>
+        <v>2770425</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8134968239212276</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.800155546641671</v>
+        <v>0.7996923015004846</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.827246775939162</v>
+        <v>0.8262779683864366</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2401</v>
@@ -3701,19 +3701,19 @@
         <v>2494774</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2445302</v>
+        <v>2441289</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2547118</v>
+        <v>2553013</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7108534433170022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6967572667316901</v>
+        <v>0.6956136454237651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7257684312625934</v>
+        <v>0.7274481137706837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4987</v>
@@ -3722,19 +3722,19 @@
         <v>5222345</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5147933</v>
+        <v>5144954</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5296442</v>
+        <v>5287827</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7610036051160919</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7501603268426775</v>
+        <v>0.7497262357945429</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7718011324473188</v>
+        <v>0.7705457317816796</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>247972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226039</v>
+        <v>225732</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>271884</v>
+        <v>271704</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4286250248817743</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3907129392829772</v>
+        <v>0.3901829916737525</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4699565901124438</v>
+        <v>0.4696468818868251</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>945</v>
@@ -4086,19 +4086,19 @@
         <v>519275</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>498269</v>
+        <v>498695</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>541255</v>
+        <v>540784</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6335444352778496</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6079159677046582</v>
+        <v>0.6084357914919658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6603611977106814</v>
+        <v>0.6597868871637994</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1275</v>
@@ -4107,19 +4107,19 @@
         <v>767248</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>734404</v>
+        <v>732816</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>799486</v>
+        <v>800833</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.5487533477737936</v>
+        <v>0.5487533477737937</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5252625004128493</v>
+        <v>0.5241268640259242</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5718105813434559</v>
+        <v>0.5727739953918597</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>330557</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306645</v>
+        <v>306825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>352490</v>
+        <v>352797</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5713749751182258</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5300434098875562</v>
+        <v>0.5303531181131753</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6092870607170229</v>
+        <v>0.6098170083262475</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>478</v>
@@ -4157,19 +4157,19 @@
         <v>300360</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>278380</v>
+        <v>278851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>321366</v>
+        <v>320940</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3664555647221504</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3396388022893185</v>
+        <v>0.3402131128362003</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3920840322953416</v>
+        <v>0.3915642085080336</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>839</v>
@@ -4178,19 +4178,19 @@
         <v>630917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>598679</v>
+        <v>597332</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>663761</v>
+        <v>665349</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4512466522262064</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4281894186565441</v>
+        <v>0.4272260046081407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4747374995871508</v>
+        <v>0.4758731359740762</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>551915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>509510</v>
+        <v>512408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>599584</v>
+        <v>597031</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.247659643797305</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2286311812090515</v>
+        <v>0.2299317425842509</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2690498261735127</v>
+        <v>0.2679041508633967</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1058</v>
@@ -4303,19 +4303,19 @@
         <v>669612</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>631341</v>
+        <v>633685</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>707535</v>
+        <v>707436</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3084453033693186</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2908164558526941</v>
+        <v>0.2918962633560946</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3259138248384649</v>
+        <v>0.3258682244097166</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1636</v>
@@ -4324,19 +4324,19 @@
         <v>1221527</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1155875</v>
+        <v>1161761</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1281489</v>
+        <v>1279069</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2776545802154262</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2627318360011114</v>
+        <v>0.2640696323410398</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.291283973980945</v>
+        <v>0.2907339148946156</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1676608</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1628939</v>
+        <v>1631492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1719013</v>
+        <v>1716115</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.752340356202695</v>
+        <v>0.7523403562026951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7309501738264876</v>
+        <v>0.7320958491366035</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7713688187909487</v>
+        <v>0.7700682574157492</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1862</v>
@@ -4374,19 +4374,19 @@
         <v>1501314</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1463391</v>
+        <v>1463490</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1539585</v>
+        <v>1537241</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6915546966306814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6740861751615349</v>
+        <v>0.6741317755902835</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7091835441473061</v>
+        <v>0.7081037366439056</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3274</v>
@@ -4395,19 +4395,19 @@
         <v>3177922</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3117960</v>
+        <v>3120380</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3243574</v>
+        <v>3237688</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7223454197845738</v>
+        <v>0.7223454197845739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7087160260190551</v>
+        <v>0.7092660851053844</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7372681639988886</v>
+        <v>0.73593036765896</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>132837</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113928</v>
+        <v>112556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155700</v>
+        <v>154091</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1870929511472015</v>
+        <v>0.1870929511472014</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1604595141731492</v>
+        <v>0.1585282383834657</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2192939822251389</v>
+        <v>0.2170274299057058</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>289</v>
@@ -4520,19 +4520,19 @@
         <v>192224</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172495</v>
+        <v>172431</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>214066</v>
+        <v>212441</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2621395361258238</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2352349938384996</v>
+        <v>0.2351473556798179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2919264947931283</v>
+        <v>0.2897097163173145</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>430</v>
@@ -4541,19 +4541,19 @@
         <v>325061</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>295404</v>
+        <v>295577</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>356499</v>
+        <v>356045</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2252214714481195</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2046729281254481</v>
+        <v>0.2047928085906256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2470033106891987</v>
+        <v>0.2466891334939635</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>577171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>554308</v>
+        <v>555917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>596080</v>
+        <v>597452</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8129070488527985</v>
+        <v>0.8129070488527984</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7807060177748608</v>
+        <v>0.7829725700942943</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8395404858268506</v>
+        <v>0.8414717616165343</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>713</v>
@@ -4591,19 +4591,19 @@
         <v>541064</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>519222</v>
+        <v>520847</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>560793</v>
+        <v>560857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7378604638741761</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7080735052068718</v>
+        <v>0.7102902836826854</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7647650061615004</v>
+        <v>0.7648526443201821</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1252</v>
@@ -4612,19 +4612,19 @@
         <v>1118235</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1086797</v>
+        <v>1087251</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1147892</v>
+        <v>1147719</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7747785285518805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7529966893108015</v>
+        <v>0.7533108665060364</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7953270718745519</v>
+        <v>0.7952071914093743</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>932725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>878279</v>
+        <v>876106</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>981561</v>
+        <v>985247</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2652001243777976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2497195945184576</v>
+        <v>0.2491017029170442</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2790855630788808</v>
+        <v>0.2801336083461884</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2292</v>
@@ -4737,19 +4737,19 @@
         <v>1381111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1329402</v>
+        <v>1329139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1430964</v>
+        <v>1432871</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3708826415022116</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.356996696927209</v>
+        <v>0.3569260924770774</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3842700907819834</v>
+        <v>0.3847821401994695</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3341</v>
@@ -4758,19 +4758,19 @@
         <v>2313836</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2239764</v>
+        <v>2239335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2386384</v>
+        <v>2389416</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3195504473614523</v>
+        <v>0.3195504473614522</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3093207318147475</v>
+        <v>0.3092615565624928</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3295696122548525</v>
+        <v>0.3299883699782462</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>2584336</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2535500</v>
+        <v>2531814</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2638782</v>
+        <v>2640955</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7347998756222023</v>
+        <v>0.7347998756222026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7209144369211192</v>
+        <v>0.7198663916538116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.750280405481542</v>
+        <v>0.7508982970829559</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3053</v>
@@ -4808,19 +4808,19 @@
         <v>2342739</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2292886</v>
+        <v>2290979</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2394448</v>
+        <v>2394711</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6291173584977883</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6157299092180166</v>
+        <v>0.6152178598005303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6430033030727909</v>
+        <v>0.6430739075229226</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5365</v>
@@ -4829,19 +4829,19 @@
         <v>4927074</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4854526</v>
+        <v>4851494</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5001146</v>
+        <v>5001575</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6804495526385477</v>
+        <v>0.6804495526385478</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6704303877451475</v>
+        <v>0.670011630021754</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6906792681852525</v>
+        <v>0.6907384434375072</v>
       </c>
     </row>
     <row r="15">
